--- a/casestudy/yargs-1364/results.xlsx
+++ b/casestudy/yargs-1364/results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franktip/git/mutation-testing-data/casestudy/yargs-1364/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F74C85-78F3-6046-9A90-9737EF39A197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F1B98A-393F-474C-BCB6-B8634FC6C8B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7360" yWindow="7400" windowWidth="27240" windowHeight="16440" activeTab="5" xr2:uid="{BA8F4140-1AF3-1848-B3E0-7ADBCED5078A}"/>
+    <workbookView xWindow="8400" yWindow="2720" windowWidth="27240" windowHeight="19660" activeTab="5" xr2:uid="{BA8F4140-1AF3-1848-B3E0-7ADBCED5078A}"/>
   </bookViews>
   <sheets>
     <sheet name="bug" sheetId="6" r:id="rId1"/>
@@ -422,7 +422,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -445,6 +445,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -783,7 +786,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -815,7 +818,7 @@
       <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="9">
         <v>105</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -837,8 +840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45260694-0BBD-5143-B71E-4CB7D6F62B75}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -940,8 +943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C430C8-EF7C-864F-9C13-90FBBD429C35}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -971,7 +974,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -983,7 +986,7 @@
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -994,7 +997,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
@@ -1044,8 +1047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{611F4CE5-1A94-D544-828F-3756B1B1292E}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1074,7 +1077,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -1086,7 +1089,7 @@
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -1097,7 +1100,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -1147,8 +1150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D8478CE-4E42-ED49-86FC-D0F1E49FB7E9}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C4" sqref="C2:C4"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1177,7 +1180,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -1200,7 +1203,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
@@ -1250,8 +1253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BAD8DAD-99CB-094E-8B83-51C6C4237597}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1280,7 +1283,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1291,7 +1294,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -1302,7 +1305,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>32</v>
       </c>
